--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumc\Desktop\pyth\반납확인프로그램\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumc\Desktop\pyth\반납확인_안드로이드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46827EB9-E8BE-4F0C-A16D-17DAC8DB17BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFAA166-4714-45DD-B52C-0F22C47ABB88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10860" xr2:uid="{577A995F-282A-454B-ACD2-9BE064041332}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>약품코드</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>phosten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06449023219</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06449032310</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06449042531</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,10 +319,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,14 +648,14 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -649,7 +667,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -666,8 +684,8 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>8806449023219</v>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -679,7 +697,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
@@ -690,7 +708,7 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
@@ -701,7 +719,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -712,7 +730,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
@@ -723,7 +741,7 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
@@ -734,7 +752,7 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -745,7 +763,7 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
@@ -756,7 +774,7 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
@@ -767,7 +785,7 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
@@ -778,7 +796,7 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -789,7 +807,7 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
@@ -800,7 +818,7 @@
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
@@ -811,7 +829,7 @@
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
@@ -822,7 +840,7 @@
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
@@ -833,7 +851,7 @@
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
@@ -844,7 +862,7 @@
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
@@ -855,8 +873,8 @@
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="4">
-        <v>8806449032310</v>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -868,8 +886,8 @@
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4">
-        <v>8806449042531</v>
+      <c r="C20" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -881,7 +899,7 @@
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
@@ -892,7 +910,7 @@
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
@@ -903,7 +921,7 @@
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
@@ -914,7 +932,7 @@
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
@@ -925,7 +943,7 @@
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
@@ -950,7 +968,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B1" t="s">
@@ -958,7 +976,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumc\Desktop\pyth\반납확인_안드로이드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFAA166-4714-45DD-B52C-0F22C47ABB88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD4780C-85CF-48F8-9CD0-CFC4C3693B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10860" xr2:uid="{577A995F-282A-454B-ACD2-9BE064041332}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>약품코드</t>
   </si>
@@ -124,100 +124,147 @@
     <t>Luphere depot 3.75mg(대웅)</t>
   </si>
   <si>
+    <t>Magnesium Sulfate주 50% 20mL(대한)</t>
+  </si>
+  <si>
+    <t>B1MITO22</t>
+  </si>
+  <si>
+    <t>Mitomycin-C 10mg(유나이티드)</t>
+  </si>
+  <si>
+    <t>Na-40 20mL(중외)</t>
+  </si>
+  <si>
+    <t>Phosten 20mL(중외)</t>
+  </si>
+  <si>
+    <t>B1HPR31</t>
+  </si>
+  <si>
+    <t>Pine(Heparin) 5000iu/5mL(휴온스)</t>
+  </si>
+  <si>
+    <t>B1MTX55</t>
+  </si>
+  <si>
+    <t>Unitrexate 주 50mg(유나이티드)</t>
+  </si>
+  <si>
+    <t>B1VNB13</t>
+  </si>
+  <si>
+    <t>Vecaron 4mg(이연)</t>
+  </si>
+  <si>
+    <t>B1GSR11</t>
+  </si>
+  <si>
+    <t>ZolaDEX Depot 3.6mg(아스트라)</t>
+  </si>
+  <si>
+    <t>B1GSR21</t>
+  </si>
+  <si>
+    <t>Zoladex LA depo 10.8mg아스트라</t>
+  </si>
+  <si>
+    <t>표준코드1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준코드2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준코드3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1NS4A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*B1NS4A1*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1KH2P11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*B1KH2P11*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>na-40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phosten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06449023219</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06449032310</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06449042531</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06963004015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1CAG11</t>
+  </si>
+  <si>
+    <t>Cal gluconate 10% 20mL(중외)</t>
+  </si>
+  <si>
+    <t>06449142811</t>
+  </si>
+  <si>
     <t>B1MGSO22</t>
-  </si>
-  <si>
-    <t>Magnesium Sulfate주 50% 20mL(대한)</t>
-  </si>
-  <si>
-    <t>B1MITO22</t>
-  </si>
-  <si>
-    <t>Mitomycin-C 10mg(유나이티드)</t>
-  </si>
-  <si>
-    <t>Na-40 20mL(중외)</t>
-  </si>
-  <si>
-    <t>Phosten 20mL(중외)</t>
-  </si>
-  <si>
-    <t>B1HPR31</t>
-  </si>
-  <si>
-    <t>Pine(Heparin) 5000iu/5mL(휴온스)</t>
-  </si>
-  <si>
-    <t>B1MTX55</t>
-  </si>
-  <si>
-    <t>Unitrexate 주 50mg(유나이티드)</t>
-  </si>
-  <si>
-    <t>B1VNB13</t>
-  </si>
-  <si>
-    <t>Vecaron 4mg(이연)</t>
-  </si>
-  <si>
-    <t>B1GSR11</t>
-  </si>
-  <si>
-    <t>ZolaDEX Depot 3.6mg(아스트라)</t>
-  </si>
-  <si>
-    <t>B1GSR21</t>
-  </si>
-  <si>
-    <t>Zoladex LA depo 10.8mg아스트라</t>
-  </si>
-  <si>
-    <t>표준코드1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>표준코드2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>표준코드3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1NS4A1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*B1NS4A1*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1KH2P11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*B1KH2P11*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>na-40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phosten</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06449023219</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06449032310</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06449042531</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06451011013</t>
+  </si>
+  <si>
+    <t>06451008631</t>
+  </si>
+  <si>
+    <t>06789008617</t>
+  </si>
+  <si>
+    <t>B1AMD11</t>
+  </si>
+  <si>
+    <t>CorDARONE 150mg(사노피)</t>
+  </si>
+  <si>
+    <t>06520004519</t>
+  </si>
+  <si>
+    <t>B1INDC31</t>
+  </si>
+  <si>
+    <t>Carmine 0.8% 5mL(유나이티드)</t>
+  </si>
+  <si>
+    <t>06443038516</t>
+  </si>
+  <si>
+    <t>06706075715</t>
+  </si>
+  <si>
+    <t>06449036011</t>
   </si>
 </sst>
 </file>
@@ -645,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12B3EA8-0E33-4076-A8AE-51220EFBE57A}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -685,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -752,7 +799,9 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -774,7 +823,9 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
@@ -785,7 +836,9 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
@@ -807,7 +860,9 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
@@ -846,21 +901,23 @@
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
@@ -868,47 +925,49 @@
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
@@ -916,10 +975,10 @@
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
@@ -927,10 +986,10 @@
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
@@ -938,14 +997,47 @@
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -969,18 +1061,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
